--- a/testdata/FCfiles/stg/CustomOrder/QA_537.xlsx
+++ b/testdata/FCfiles/stg/CustomOrder/QA_537.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="128">
   <si>
     <t>shipmentType</t>
   </si>
@@ -404,6 +404,12 @@
   </si>
   <si>
     <t>51527537</t>
+  </si>
+  <si>
+    <t>58562473</t>
+  </si>
+  <si>
+    <t>58569527</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,8 +663,38 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -875,12 +911,33 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -918,7 +975,10 @@
     <xf applyBorder="true" applyFill="true" borderId="38" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="42" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="44" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="46" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="50" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1603,8 +1663,8 @@
       <c r="T5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="37" t="s">
-        <v>125</v>
+      <c r="U5" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>99</v>

--- a/testdata/FCfiles/stg/CustomOrder/QA_537.xlsx
+++ b/testdata/FCfiles/stg/CustomOrder/QA_537.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="129">
   <si>
     <t>shipmentType</t>
   </si>
@@ -410,6 +410,9 @@
   </si>
   <si>
     <t>58569527</t>
+  </si>
+  <si>
+    <t>58573028</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,8 +696,28 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="51">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -932,12 +955,26 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -978,7 +1015,9 @@
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="46" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="50" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="50" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="52" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="54" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1663,8 +1702,8 @@
       <c r="T5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="40" t="s">
-        <v>127</v>
+      <c r="U5" s="42" t="s">
+        <v>128</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>99</v>

--- a/testdata/FCfiles/stg/CustomOrder/QA_537.xlsx
+++ b/testdata/FCfiles/stg/CustomOrder/QA_537.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="130">
   <si>
     <t>shipmentType</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>58573028</t>
+  </si>
+  <si>
+    <t>58575710</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="54">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,8 +719,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="55">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -969,12 +982,19 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1017,7 +1037,8 @@
     <xf applyBorder="true" applyFill="true" borderId="48" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="50" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="52" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="54" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="54" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="56" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1702,8 +1723,8 @@
       <c r="T5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="42" t="s">
-        <v>128</v>
+      <c r="U5" s="43" t="s">
+        <v>129</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>99</v>

--- a/testdata/FCfiles/stg/CustomOrder/QA_537.xlsx
+++ b/testdata/FCfiles/stg/CustomOrder/QA_537.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="131">
   <si>
     <t>shipmentType</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>58575710</t>
+  </si>
+  <si>
+    <t>59070056</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="56">
+  <fills count="60">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,8 +732,28 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="57">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -989,12 +1012,26 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1038,7 +1075,9 @@
     <xf applyBorder="true" applyFill="true" borderId="50" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="52" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="54" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="56" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="56" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="58" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="60" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1723,8 +1762,8 @@
       <c r="T5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="43" t="s">
-        <v>129</v>
+      <c r="U5" s="45" t="s">
+        <v>130</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>99</v>
